--- a/docs/MultipleLanguagesDeclaration.xlsx
+++ b/docs/MultipleLanguagesDeclaration.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
   <si>
     <t>资源标识名称</t>
   </si>
@@ -95,6 +95,27 @@
   </si>
   <si>
     <t>方法參數 {0} 是必需的。</t>
+  </si>
+  <si>
+    <t>CurrencyAbbr_rmb</t>
+  </si>
+  <si>
+    <t>RMB</t>
+  </si>
+  <si>
+    <t>CNY</t>
+  </si>
+  <si>
+    <t>CurrencyAbbr_dollar</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>CurrencyAbbr_euro</t>
+  </si>
+  <si>
+    <t>EUR</t>
   </si>
 </sst>
 </file>
@@ -1061,13 +1082,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" customHeight="1" outlineLevelRow="5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" customHeight="1" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="42.75" style="2" customWidth="1"/>
     <col min="2" max="2" width="29.375" style="2" customWidth="1"/>
@@ -1232,6 +1253,84 @@
         <v>,"ArgumentNullException_with_argument_name": "方法參數 {0} 是必需的。"</v>
       </c>
     </row>
+    <row r="7" customHeight="1" spans="1:7">
+      <c r="A7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="2" t="str">
+        <f>","""&amp;A7&amp;""": """&amp;B7&amp;""""</f>
+        <v>,"CurrencyAbbr_rmb": "RMB"</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="2" t="str">
+        <f>","""&amp;A7&amp;""": """&amp;D7&amp;""""</f>
+        <v>,"CurrencyAbbr_rmb": "CNY"</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="2" t="str">
+        <f>","""&amp;A7&amp;""": """&amp;F7&amp;""""</f>
+        <v>,"CurrencyAbbr_rmb": "CNY"</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:7">
+      <c r="A8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="2" t="str">
+        <f>","""&amp;A8&amp;""": """&amp;B8&amp;""""</f>
+        <v>,"CurrencyAbbr_dollar": "USD"</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="2" t="str">
+        <f>","""&amp;A8&amp;""": """&amp;D8&amp;""""</f>
+        <v>,"CurrencyAbbr_dollar": "USD"</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="2" t="str">
+        <f>","""&amp;A8&amp;""": """&amp;F8&amp;""""</f>
+        <v>,"CurrencyAbbr_dollar": "USD"</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:7">
+      <c r="A9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="2" t="str">
+        <f>","""&amp;A9&amp;""": """&amp;B9&amp;""""</f>
+        <v>,"CurrencyAbbr_euro": "EUR"</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="2" t="str">
+        <f>","""&amp;A9&amp;""": """&amp;D9&amp;""""</f>
+        <v>,"CurrencyAbbr_euro": "EUR"</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="2" t="str">
+        <f>","""&amp;A9&amp;""": """&amp;F9&amp;""""</f>
+        <v>,"CurrencyAbbr_euro": "EUR"</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/docs/MultipleLanguagesDeclaration.xlsx
+++ b/docs/MultipleLanguagesDeclaration.xlsx
@@ -1084,8 +1084,8 @@
   <sheetPr/>
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" customHeight="1" outlineLevelCol="6"/>
@@ -1131,21 +1131,21 @@
         <v>8</v>
       </c>
       <c r="C2" s="2" t="str">
-        <f>","""&amp;A2&amp;""": """&amp;B2&amp;""""</f>
+        <f t="shared" ref="C2:C9" si="0">","""&amp;A2&amp;""": """&amp;B2&amp;""""</f>
         <v>,"Exception": "应用程序引发了一个未处理的异常。"</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="2" t="str">
-        <f>","""&amp;A2&amp;""": """&amp;D2&amp;""""</f>
+        <f t="shared" ref="E2:E9" si="1">","""&amp;A2&amp;""": """&amp;D2&amp;""""</f>
         <v>,"Exception": "The application threw an unhandled exception."</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G2" s="2" t="str">
-        <f>","""&amp;A2&amp;""": """&amp;F2&amp;""""</f>
+        <f t="shared" ref="G2:G9" si="2">","""&amp;A2&amp;""": """&amp;F2&amp;""""</f>
         <v>,"Exception": "應用程序引發了一個未處理的異常。"</v>
       </c>
     </row>
@@ -1157,21 +1157,21 @@
         <v>12</v>
       </c>
       <c r="C3" s="2" t="str">
-        <f>","""&amp;A3&amp;""": """&amp;B3&amp;""""</f>
+        <f t="shared" si="0"/>
         <v>,"ArgumentException": "错误的方法参数。"</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="2" t="str">
-        <f>","""&amp;A3&amp;""": """&amp;D3&amp;""""</f>
+        <f t="shared" si="1"/>
         <v>,"ArgumentException": "Bad method parameter value."</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G3" s="2" t="str">
-        <f>","""&amp;A3&amp;""": """&amp;F3&amp;""""</f>
+        <f t="shared" si="2"/>
         <v>,"ArgumentException": "錯誤的方法參數。"</v>
       </c>
     </row>
@@ -1183,21 +1183,21 @@
         <v>16</v>
       </c>
       <c r="C4" s="2" t="str">
-        <f>","""&amp;A4&amp;""": """&amp;B4&amp;""""</f>
+        <f t="shared" si="0"/>
         <v>,"ArgumentException_with_invalid_argument_name": "错误的方法参数：{0}。"</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E4" s="2" t="str">
-        <f>","""&amp;A4&amp;""": """&amp;D4&amp;""""</f>
+        <f t="shared" si="1"/>
         <v>,"ArgumentException_with_invalid_argument_name": "Bad method parameter (see {0}) value."</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G4" s="2" t="str">
-        <f>","""&amp;A4&amp;""": """&amp;F4&amp;""""</f>
+        <f t="shared" si="2"/>
         <v>,"ArgumentException_with_invalid_argument_name": "錯誤的方法參數：{0}。"</v>
       </c>
     </row>
@@ -1209,21 +1209,21 @@
         <v>20</v>
       </c>
       <c r="C5" s="2" t="str">
-        <f>","""&amp;A5&amp;""": """&amp;B5&amp;""""</f>
+        <f t="shared" si="0"/>
         <v>,"ArgumentNullException": "指定的方法参数是必需的。"</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E5" s="2" t="str">
-        <f>","""&amp;A5&amp;""": """&amp;D5&amp;""""</f>
+        <f t="shared" si="1"/>
         <v>,"ArgumentNullException": "The specified method parameter is required."</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G5" s="2" t="str">
-        <f>","""&amp;A5&amp;""": """&amp;F5&amp;""""</f>
+        <f t="shared" si="2"/>
         <v>,"ArgumentNullException": "指定的方法參數是必需的。"</v>
       </c>
     </row>
@@ -1235,21 +1235,21 @@
         <v>24</v>
       </c>
       <c r="C6" s="2" t="str">
-        <f>","""&amp;A6&amp;""": """&amp;B6&amp;""""</f>
+        <f t="shared" si="0"/>
         <v>,"ArgumentNullException_with_argument_name": "方法参数 {0} 是必需的。"</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E6" s="2" t="str">
-        <f>","""&amp;A6&amp;""": """&amp;D6&amp;""""</f>
+        <f t="shared" si="1"/>
         <v>,"ArgumentNullException_with_argument_name": "The parameter {0} is required"</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>26</v>
       </c>
       <c r="G6" s="2" t="str">
-        <f>","""&amp;A6&amp;""": """&amp;F6&amp;""""</f>
+        <f t="shared" si="2"/>
         <v>,"ArgumentNullException_with_argument_name": "方法參數 {0} 是必需的。"</v>
       </c>
     </row>
@@ -1261,21 +1261,21 @@
         <v>28</v>
       </c>
       <c r="C7" s="2" t="str">
-        <f>","""&amp;A7&amp;""": """&amp;B7&amp;""""</f>
+        <f t="shared" si="0"/>
         <v>,"CurrencyAbbr_rmb": "RMB"</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E7" s="2" t="str">
-        <f>","""&amp;A7&amp;""": """&amp;D7&amp;""""</f>
+        <f t="shared" si="1"/>
         <v>,"CurrencyAbbr_rmb": "CNY"</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G7" s="2" t="str">
-        <f>","""&amp;A7&amp;""": """&amp;F7&amp;""""</f>
+        <f t="shared" si="2"/>
         <v>,"CurrencyAbbr_rmb": "CNY"</v>
       </c>
     </row>
@@ -1287,21 +1287,21 @@
         <v>31</v>
       </c>
       <c r="C8" s="2" t="str">
-        <f>","""&amp;A8&amp;""": """&amp;B8&amp;""""</f>
+        <f t="shared" si="0"/>
         <v>,"CurrencyAbbr_dollar": "USD"</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E8" s="2" t="str">
-        <f>","""&amp;A8&amp;""": """&amp;D8&amp;""""</f>
+        <f t="shared" si="1"/>
         <v>,"CurrencyAbbr_dollar": "USD"</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>31</v>
       </c>
       <c r="G8" s="2" t="str">
-        <f>","""&amp;A8&amp;""": """&amp;F8&amp;""""</f>
+        <f t="shared" si="2"/>
         <v>,"CurrencyAbbr_dollar": "USD"</v>
       </c>
     </row>
@@ -1313,21 +1313,21 @@
         <v>33</v>
       </c>
       <c r="C9" s="2" t="str">
-        <f>","""&amp;A9&amp;""": """&amp;B9&amp;""""</f>
+        <f t="shared" si="0"/>
         <v>,"CurrencyAbbr_euro": "EUR"</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E9" s="2" t="str">
-        <f>","""&amp;A9&amp;""": """&amp;D9&amp;""""</f>
+        <f t="shared" si="1"/>
         <v>,"CurrencyAbbr_euro": "EUR"</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>33</v>
       </c>
       <c r="G9" s="2" t="str">
-        <f>","""&amp;A9&amp;""": """&amp;F9&amp;""""</f>
+        <f t="shared" si="2"/>
         <v>,"CurrencyAbbr_euro": "EUR"</v>
       </c>
     </row>

--- a/docs/MultipleLanguagesDeclaration.xlsx
+++ b/docs/MultipleLanguagesDeclaration.xlsx
@@ -1085,7 +1085,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" customHeight="1" outlineLevelCol="6"/>

--- a/docs/MultipleLanguagesDeclaration.xlsx
+++ b/docs/MultipleLanguagesDeclaration.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
   <si>
     <t>资源标识名称</t>
   </si>
@@ -116,6 +116,18 @@
   </si>
   <si>
     <t>EUR</t>
+  </si>
+  <si>
+    <t>ArgumentException_number_parse_failure</t>
+  </si>
+  <si>
+    <t>无法将字符串 “s”转换成一个 “Number”。</t>
+  </si>
+  <si>
+    <t>The string "s" cannot be converted into a "Number".</t>
+  </si>
+  <si>
+    <t>無法將字符串 “s”轉換成一個 “Number”。</t>
   </si>
 </sst>
 </file>
@@ -1082,21 +1094,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" customHeight="1" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="42.75" style="2" customWidth="1"/>
-    <col min="2" max="2" width="29.375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="66" style="2" customWidth="1"/>
-    <col min="4" max="4" width="37.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="38.375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="79" style="2" customWidth="1"/>
+    <col min="4" max="4" width="45.375" style="2" customWidth="1"/>
     <col min="5" max="5" width="79.875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="29.375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="66" style="2" customWidth="1"/>
+    <col min="6" max="6" width="38.375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="79" style="2" customWidth="1"/>
     <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -1331,6 +1343,32 @@
         <v>,"CurrencyAbbr_euro": "EUR"</v>
       </c>
     </row>
+    <row r="10" customHeight="1" spans="1:7">
+      <c r="A10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="2" t="str">
+        <f>","""&amp;A10&amp;""": """&amp;B10&amp;""""</f>
+        <v>,"ArgumentException_number_parse_failure": "无法将字符串 “s”转换成一个 “Number”。"</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="2" t="str">
+        <f>","""&amp;A10&amp;""": """&amp;D10&amp;""""</f>
+        <v>,"ArgumentException_number_parse_failure": "The string "s" cannot be converted into a "Number"."</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="2" t="str">
+        <f>","""&amp;A10&amp;""": """&amp;F10&amp;""""</f>
+        <v>,"ArgumentException_number_parse_failure": "無法將字符串 “s”轉換成一個 “Number”。"</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/docs/MultipleLanguagesDeclaration.xlsx
+++ b/docs/MultipleLanguagesDeclaration.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="42">
   <si>
     <t>资源标识名称</t>
   </si>
@@ -128,6 +128,18 @@
   </si>
   <si>
     <t>無法將字符串 “s”轉換成一個 “Number”。</t>
+  </si>
+  <si>
+    <t>Exception_invalid_timer_interval_value</t>
+  </si>
+  <si>
+    <t>错误的计时器时间间隔值。</t>
+  </si>
+  <si>
+    <t>Bad timer interval value.</t>
+  </si>
+  <si>
+    <t>錯誤的計時器時間間隔值。</t>
   </si>
 </sst>
 </file>
@@ -1094,10 +1106,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" customHeight="1" outlineLevelCol="6"/>
@@ -1143,21 +1155,21 @@
         <v>8</v>
       </c>
       <c r="C2" s="2" t="str">
-        <f t="shared" ref="C2:C9" si="0">","""&amp;A2&amp;""": """&amp;B2&amp;""""</f>
+        <f t="shared" ref="C2:C10" si="0">","""&amp;A2&amp;""": """&amp;B2&amp;""""</f>
         <v>,"Exception": "应用程序引发了一个未处理的异常。"</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="2" t="str">
-        <f t="shared" ref="E2:E9" si="1">","""&amp;A2&amp;""": """&amp;D2&amp;""""</f>
+        <f t="shared" ref="E2:E10" si="1">","""&amp;A2&amp;""": """&amp;D2&amp;""""</f>
         <v>,"Exception": "The application threw an unhandled exception."</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G2" s="2" t="str">
-        <f t="shared" ref="G2:G9" si="2">","""&amp;A2&amp;""": """&amp;F2&amp;""""</f>
+        <f t="shared" ref="G2:G10" si="2">","""&amp;A2&amp;""": """&amp;F2&amp;""""</f>
         <v>,"Exception": "應用程序引發了一個未處理的異常。"</v>
       </c>
     </row>
@@ -1351,22 +1363,48 @@
         <v>35</v>
       </c>
       <c r="C10" s="2" t="str">
-        <f>","""&amp;A10&amp;""": """&amp;B10&amp;""""</f>
+        <f t="shared" si="0"/>
         <v>,"ArgumentException_number_parse_failure": "无法将字符串 “s”转换成一个 “Number”。"</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E10" s="2" t="str">
-        <f>","""&amp;A10&amp;""": """&amp;D10&amp;""""</f>
+        <f t="shared" si="1"/>
         <v>,"ArgumentException_number_parse_failure": "The string "s" cannot be converted into a "Number"."</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>37</v>
       </c>
       <c r="G10" s="2" t="str">
-        <f>","""&amp;A10&amp;""": """&amp;F10&amp;""""</f>
+        <f t="shared" si="2"/>
         <v>,"ArgumentException_number_parse_failure": "無法將字符串 “s”轉換成一個 “Number”。"</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:7">
+      <c r="A11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="2" t="str">
+        <f>","""&amp;A11&amp;""": """&amp;B11&amp;""""</f>
+        <v>,"Exception_invalid_timer_interval_value": "错误的计时器时间间隔值。"</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="2" t="str">
+        <f>","""&amp;A11&amp;""": """&amp;D11&amp;""""</f>
+        <v>,"Exception_invalid_timer_interval_value": "Bad timer interval value."</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="2" t="str">
+        <f>","""&amp;A11&amp;""": """&amp;F11&amp;""""</f>
+        <v>,"Exception_invalid_timer_interval_value": "錯誤的計時器時間間隔值。"</v>
       </c>
     </row>
   </sheetData>

--- a/docs/MultipleLanguagesDeclaration.xlsx
+++ b/docs/MultipleLanguagesDeclaration.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="63">
   <si>
     <t>资源标识名称</t>
   </si>
@@ -140,6 +140,69 @@
   </si>
   <si>
     <t>錯誤的計時器時間間隔值。</t>
+  </si>
+  <si>
+    <t>DateFormat_default</t>
+  </si>
+  <si>
+    <t>YYYY年MM月DD日</t>
+  </si>
+  <si>
+    <t>DD/MM/YYYY</t>
+  </si>
+  <si>
+    <t>DateTimeFormat_just_now</t>
+  </si>
+  <si>
+    <t>刚刚</t>
+  </si>
+  <si>
+    <t>Just now</t>
+  </si>
+  <si>
+    <t>剛剛</t>
+  </si>
+  <si>
+    <t>DateTimeFormat_minutes_ago</t>
+  </si>
+  <si>
+    <t>{0} 分钟前</t>
+  </si>
+  <si>
+    <t>{0} minutes ago</t>
+  </si>
+  <si>
+    <t>{0} 分鐘前</t>
+  </si>
+  <si>
+    <t>DateTimeFormatl_hours_ago</t>
+  </si>
+  <si>
+    <t>{0} 小时前</t>
+  </si>
+  <si>
+    <t>{0} hours ago</t>
+  </si>
+  <si>
+    <t>{0} 小時前</t>
+  </si>
+  <si>
+    <t>DateTimeFormat_days_ago</t>
+  </si>
+  <si>
+    <t>{0} 天前</t>
+  </si>
+  <si>
+    <t>{0} days ago</t>
+  </si>
+  <si>
+    <t>DateTimeFormat_same_year</t>
+  </si>
+  <si>
+    <t>MM月DD日</t>
+  </si>
+  <si>
+    <t>DD/MM</t>
   </si>
 </sst>
 </file>
@@ -1106,10 +1169,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" customHeight="1" outlineLevelCol="6"/>
@@ -1155,21 +1218,21 @@
         <v>8</v>
       </c>
       <c r="C2" s="2" t="str">
-        <f t="shared" ref="C2:C10" si="0">","""&amp;A2&amp;""": """&amp;B2&amp;""""</f>
+        <f t="shared" ref="C2:C11" si="0">","""&amp;A2&amp;""": """&amp;B2&amp;""""</f>
         <v>,"Exception": "应用程序引发了一个未处理的异常。"</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="2" t="str">
-        <f t="shared" ref="E2:E10" si="1">","""&amp;A2&amp;""": """&amp;D2&amp;""""</f>
+        <f t="shared" ref="E2:E11" si="1">","""&amp;A2&amp;""": """&amp;D2&amp;""""</f>
         <v>,"Exception": "The application threw an unhandled exception."</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G2" s="2" t="str">
-        <f t="shared" ref="G2:G10" si="2">","""&amp;A2&amp;""": """&amp;F2&amp;""""</f>
+        <f t="shared" ref="G2:G11" si="2">","""&amp;A2&amp;""": """&amp;F2&amp;""""</f>
         <v>,"Exception": "應用程序引發了一個未處理的異常。"</v>
       </c>
     </row>
@@ -1389,22 +1452,178 @@
         <v>39</v>
       </c>
       <c r="C11" s="2" t="str">
-        <f>","""&amp;A11&amp;""": """&amp;B11&amp;""""</f>
+        <f t="shared" si="0"/>
         <v>,"Exception_invalid_timer_interval_value": "错误的计时器时间间隔值。"</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E11" s="2" t="str">
-        <f>","""&amp;A11&amp;""": """&amp;D11&amp;""""</f>
+        <f t="shared" si="1"/>
         <v>,"Exception_invalid_timer_interval_value": "Bad timer interval value."</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>41</v>
       </c>
       <c r="G11" s="2" t="str">
-        <f>","""&amp;A11&amp;""": """&amp;F11&amp;""""</f>
+        <f t="shared" si="2"/>
         <v>,"Exception_invalid_timer_interval_value": "錯誤的計時器時間間隔值。"</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="1:7">
+      <c r="A12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="2" t="str">
+        <f>","""&amp;A12&amp;""": """&amp;B12&amp;""""</f>
+        <v>,"DateFormat_default": "YYYY年MM月DD日"</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="2" t="str">
+        <f>","""&amp;A12&amp;""": """&amp;D12&amp;""""</f>
+        <v>,"DateFormat_default": "DD/MM/YYYY"</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="2" t="str">
+        <f>","""&amp;A12&amp;""": """&amp;F12&amp;""""</f>
+        <v>,"DateFormat_default": "YYYY年MM月DD日"</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="1:7">
+      <c r="A13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="2" t="str">
+        <f>","""&amp;A13&amp;""": """&amp;B13&amp;""""</f>
+        <v>,"DateTimeFormat_just_now": "刚刚"</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="2" t="str">
+        <f>","""&amp;A13&amp;""": """&amp;D13&amp;""""</f>
+        <v>,"DateTimeFormat_just_now": "Just now"</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13" s="2" t="str">
+        <f>","""&amp;A13&amp;""": """&amp;F13&amp;""""</f>
+        <v>,"DateTimeFormat_just_now": "剛剛"</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="1:7">
+      <c r="A14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="2" t="str">
+        <f>","""&amp;A14&amp;""": """&amp;B14&amp;""""</f>
+        <v>,"DateTimeFormat_minutes_ago": "{0} 分钟前"</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="2" t="str">
+        <f>","""&amp;A14&amp;""": """&amp;D14&amp;""""</f>
+        <v>,"DateTimeFormat_minutes_ago": "{0} minutes ago"</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G14" s="2" t="str">
+        <f>","""&amp;A14&amp;""": """&amp;F14&amp;""""</f>
+        <v>,"DateTimeFormat_minutes_ago": "{0} 分鐘前"</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="1:7">
+      <c r="A15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="2" t="str">
+        <f>","""&amp;A15&amp;""": """&amp;B15&amp;""""</f>
+        <v>,"DateTimeFormatl_hours_ago": "{0} 小时前"</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="2" t="str">
+        <f>","""&amp;A15&amp;""": """&amp;D15&amp;""""</f>
+        <v>,"DateTimeFormatl_hours_ago": "{0} hours ago"</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G15" s="2" t="str">
+        <f>","""&amp;A15&amp;""": """&amp;F15&amp;""""</f>
+        <v>,"DateTimeFormatl_hours_ago": "{0} 小時前"</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="1:7">
+      <c r="A16" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="2" t="str">
+        <f>","""&amp;A16&amp;""": """&amp;B16&amp;""""</f>
+        <v>,"DateTimeFormat_days_ago": "{0} 天前"</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" s="2" t="str">
+        <f>","""&amp;A16&amp;""": """&amp;D16&amp;""""</f>
+        <v>,"DateTimeFormat_days_ago": "{0} days ago"</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G16" s="2" t="str">
+        <f>","""&amp;A16&amp;""": """&amp;F16&amp;""""</f>
+        <v>,"DateTimeFormat_days_ago": "{0} 天前"</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="1:7">
+      <c r="A17" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="2" t="str">
+        <f>","""&amp;A17&amp;""": """&amp;B17&amp;""""</f>
+        <v>,"DateTimeFormat_same_year": "MM月DD日"</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" s="2" t="str">
+        <f>","""&amp;A17&amp;""": """&amp;D17&amp;""""</f>
+        <v>,"DateTimeFormat_same_year": "DD/MM"</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G17" s="2" t="str">
+        <f>","""&amp;A17&amp;""": """&amp;F17&amp;""""</f>
+        <v>,"DateTimeFormat_same_year": "MM月DD日"</v>
       </c>
     </row>
   </sheetData>
